--- a/para/Swi/2MBI300XBE120.xlsx
+++ b/para/Swi/2MBI300XBE120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q516645\Desktop\Github\PyPowerSim\para\Swi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51C3236-3924-480C-A4E8-E24413A35302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E51C3236-3924-480C-A4E8-E24413A35302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09019FBF-2FA2-4E15-80D0-7CCC72FE151A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="167">
   <si>
     <t>Parameter</t>
   </si>
@@ -484,18 +484,6 @@
     <t>If</t>
   </si>
   <si>
-    <t>Maximum rated blocking voltage, e.g. Vce,max or Vds, max</t>
-  </si>
-  <si>
-    <t>Vmax</t>
-  </si>
-  <si>
-    <t>maximum rated channel current, e.g. Ice,max or Ids,max</t>
-  </si>
-  <si>
-    <t>Imax</t>
-  </si>
-  <si>
     <t>On-State channel current</t>
   </si>
   <si>
@@ -536,6 +524,21 @@
   </si>
   <si>
     <t>https://felib.fujielectric.co.jp/en/M10013/M20088/document_detail/fc32cfbc-2142-4736-9001-10b8584982e1?region=en-glb&amp;_gl=1*8nn0wy*_ga*MTMyNDY2Mjc3Ny4xNzAxMzIzMzIz*_ga_YGMNRLDSD5*MTcwMTMzMzAxOC4yLjAuMTcwMTMzMzAxOC4wLjAuMA..</t>
+  </si>
+  <si>
+    <t>Ifd (A)</t>
+  </si>
+  <si>
+    <t>Rated blocking voltage, e.g. Vce or Vds, used for linearly scaling switching losses</t>
+  </si>
+  <si>
+    <t>Vnom</t>
+  </si>
+  <si>
+    <t>Rated channel current, e.g. Ice or Ids, used for linearly scaling switching losses</t>
+  </si>
+  <si>
+    <t>Inom</t>
   </si>
 </sst>
 </file>
@@ -971,8 +974,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -990,7 +993,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1052,7 +1055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2181,7 +2184,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2219,7 +2222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -2298,7 +2301,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2336,7 +2339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -2378,7 +2381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2415,7 +2418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2429,7 +2432,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2496,7 +2499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2773,7 +2776,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2811,7 +2814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="371713647"/>
@@ -2890,7 +2893,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2928,7 +2931,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="371716975"/>
@@ -2976,7 +2979,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2990,7 +2993,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3052,7 +3055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4181,7 +4184,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4219,7 +4222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -4299,7 +4302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4337,7 +4340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -4379,7 +4382,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4416,7 +4419,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4430,7 +4433,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4492,7 +4495,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5621,7 +5624,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5659,7 +5662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -5739,7 +5742,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5777,7 +5780,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -5819,7 +5822,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5856,7 +5859,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5870,7 +5873,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5932,7 +5935,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7061,7 +7064,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7099,7 +7102,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -7179,7 +7182,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7217,7 +7220,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -7259,7 +7262,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7296,7 +7299,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7310,7 +7313,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7372,7 +7375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8501,7 +8504,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8539,7 +8542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -8619,7 +8622,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8657,7 +8660,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -8699,7 +8702,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8736,7 +8739,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8750,7 +8753,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8812,7 +8815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9860,7 +9863,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9898,7 +9901,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -9978,7 +9981,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10016,7 +10019,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -10058,7 +10061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10095,7 +10098,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10109,7 +10112,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10171,7 +10174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11219,7 +11222,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11257,7 +11260,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -11337,7 +11340,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11375,7 +11378,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -11417,7 +11420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11454,7 +11457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11468,7 +11471,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11530,7 +11533,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12578,7 +12581,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12616,7 +12619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556662031"/>
@@ -12696,7 +12699,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12734,7 +12737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556664527"/>
@@ -12776,7 +12779,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12813,7 +12816,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12827,7 +12830,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12894,7 +12897,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13354,7 +13357,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13392,7 +13395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376257311"/>
@@ -13471,7 +13474,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13509,7 +13512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376260639"/>
@@ -13551,7 +13554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13588,7 +13591,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19543,6 +19546,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19809,10 +19816,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -19823,7 +19830,7 @@
         <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -19839,7 +19846,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19858,7 +19865,7 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -19866,7 +19873,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -19874,7 +19881,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -19882,7 +19889,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -19927,14 +19934,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="106.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -20145,16 +20152,19 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E7" s="16">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
@@ -20258,16 +20268,16 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" s="41">
         <v>15</v>
@@ -20348,16 +20358,16 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E13" s="41">
         <v>1.8</v>
@@ -20414,19 +20424,19 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E15" s="41">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -21700,7 +21710,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B93" s="45" t="s">
         <v>57</v>
@@ -21760,7 +21770,7 @@
     </row>
     <row r="95" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
-        <f>F$16</f>
+        <f>F$17</f>
         <v>0</v>
       </c>
       <c r="B95" s="17">
@@ -21782,7 +21792,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="29">
-        <f>G$16</f>
+        <f>G$17</f>
         <v>10</v>
       </c>
       <c r="B96" s="17">
@@ -21804,7 +21814,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29">
-        <f>H$16</f>
+        <f>H$17</f>
         <v>20</v>
       </c>
       <c r="B97" s="17">
@@ -21826,7 +21836,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="29">
-        <f>I$16</f>
+        <f>I$17</f>
         <v>50</v>
       </c>
       <c r="B98" s="17">
@@ -21848,7 +21858,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
-        <f>J$16</f>
+        <f>J$17</f>
         <v>100</v>
       </c>
       <c r="B99" s="17">
@@ -21870,7 +21880,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
-        <f>K$16</f>
+        <f>K$17</f>
         <v>150</v>
       </c>
       <c r="B100" s="17">
@@ -21892,7 +21902,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
-        <f>L$16</f>
+        <f>L$17</f>
         <v>200</v>
       </c>
       <c r="B101" s="17">
@@ -21914,7 +21924,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
-        <f>M$16</f>
+        <f>M$17</f>
         <v>400</v>
       </c>
       <c r="B102" s="17">
@@ -21936,7 +21946,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
-        <f>N$16</f>
+        <f>N$17</f>
         <v>600</v>
       </c>
       <c r="B103" s="17">
@@ -23016,7 +23026,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>

--- a/para/Swi/2MBI300XBE120.xlsx
+++ b/para/Swi/2MBI300XBE120.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E51C3236-3924-480C-A4E8-E24413A35302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09019FBF-2FA2-4E15-80D0-7CCC72FE151A}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E51C3236-3924-480C-A4E8-E24413A35302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78762F70-0F85-42EE-BA4B-003BFB1B4FE6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -954,6 +954,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,15 +970,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2617,70 +2617,70 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.9998000133325533E-4</c:v>
+                  <c:v>1.9996667037005533E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9992001066557759E-4</c:v>
+                  <c:v>3.9986669629135104E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9950016662497809E-4</c:v>
+                  <c:v>9.9916712943677317E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.998001332666921E-3</c:v>
+                  <c:v>1.9966703672860352E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9920106560085156E-3</c:v>
+                  <c:v>3.9866962469793377E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9501662508318933E-3</c:v>
+                  <c:v>9.9171277070295039E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9801326693244747E-2</c:v>
+                  <c:v>1.9670339710796458E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9210560847676823E-2</c:v>
+                  <c:v>3.8695808981029332E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5162581964040482E-2</c:v>
+                  <c:v>9.2110965065631517E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18126924692201818</c:v>
+                  <c:v>0.17008121365572643</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32967995396436067</c:v>
+                  <c:v>0.29194972858044477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.63212055882855767</c:v>
+                  <c:v>0.48667463829746294</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8646647167633873</c:v>
+                  <c:v>0.57859560399164855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.98168436111126578</c:v>
+                  <c:v>0.59923641971919606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99995460007023751</c:v>
+                  <c:v>0.59999996533350886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99999999793884642</c:v>
+                  <c:v>0.59999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19934,14 +19934,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -20824,36 +20824,36 @@
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
@@ -21114,36 +21114,36 @@
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="44"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="47"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="47"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="44"/>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33"/>
@@ -21404,36 +21404,36 @@
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="44"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="47"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="47"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="44"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
@@ -21694,36 +21694,36 @@
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="44"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="47"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="47"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="44"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="32"/>
@@ -21984,37 +21984,37 @@
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="44"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="46"/>
+      <c r="K112" s="47"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="47"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="44"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22287,36 +22287,36 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="42" t="s">
+      <c r="A132" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="44"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="46"/>
+      <c r="K132" s="47"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="46"/>
-      <c r="K133" s="47"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="44"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="32"/>
@@ -22523,36 +22523,36 @@
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="42" t="s">
+      <c r="A152" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="43"/>
-      <c r="C152" s="43"/>
-      <c r="D152" s="43"/>
-      <c r="E152" s="43"/>
-      <c r="F152" s="43"/>
-      <c r="G152" s="43"/>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="43"/>
-      <c r="K152" s="44"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
+      <c r="I152" s="46"/>
+      <c r="J152" s="46"/>
+      <c r="K152" s="47"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="45" t="s">
+      <c r="B153" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="46"/>
-      <c r="D153" s="46"/>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="46"/>
-      <c r="J153" s="46"/>
-      <c r="K153" s="47"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="43"/>
+      <c r="K153" s="44"/>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="32"/>
@@ -22759,36 +22759,36 @@
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="42" t="s">
+      <c r="A172" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B172" s="43"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="43"/>
-      <c r="E172" s="43"/>
-      <c r="F172" s="43"/>
-      <c r="G172" s="43"/>
-      <c r="H172" s="43"/>
-      <c r="I172" s="43"/>
-      <c r="J172" s="43"/>
-      <c r="K172" s="44"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="46"/>
+      <c r="J172" s="46"/>
+      <c r="K172" s="47"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B173" s="45" t="s">
+      <c r="B173" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C173" s="46"/>
-      <c r="D173" s="46"/>
-      <c r="E173" s="46"/>
-      <c r="F173" s="46"/>
-      <c r="G173" s="46"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="46"/>
-      <c r="J173" s="46"/>
-      <c r="K173" s="47"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43"/>
+      <c r="I173" s="43"/>
+      <c r="J173" s="43"/>
+      <c r="K173" s="44"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="32"/>
@@ -22995,22 +22995,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="B113:K113"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="A72:K72"/>
     <mergeCell ref="A152:K152"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="A172:K172"/>
     <mergeCell ref="B173:K173"/>
     <mergeCell ref="A132:K132"/>
     <mergeCell ref="B133:K133"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="B113:K113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23022,8 +23022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10A5AF-6534-4D65-85BA-4292797F34F0}">
   <dimension ref="A1:W175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23264,10 +23264,10 @@
         <v>49</v>
       </c>
       <c r="E6" s="16">
-        <v>2.5000000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="17">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
@@ -26065,11 +26065,11 @@
       </c>
       <c r="E154" s="17">
         <f>IFERROR(E$6*(1-EXP(-$D154/(E$6*E$7))),"")</f>
-        <v>1.9920212907348356E-4</v>
+        <v>1.9996667037005533E-4</v>
       </c>
       <c r="F154" s="17">
         <f t="shared" ref="F154:O169" si="7">IFERROR(F$6*(1-EXP(-$D154/(F$6*F$7))),"")</f>
-        <v>1.9998000133325533E-4</v>
+        <v>1.9996667037005533E-4</v>
       </c>
       <c r="G154" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26109,7 +26109,7 @@
       </c>
       <c r="P154" s="17">
         <f>SUM(F154:O154)</f>
-        <v>1.9998000133325533E-4</v>
+        <v>1.9996667037005533E-4</v>
       </c>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.3">
@@ -26118,11 +26118,11 @@
       </c>
       <c r="E155" s="17">
         <f t="shared" ref="E155:O175" si="8">IFERROR(E$6*(1-EXP(-$D155/(E$6*E$7))),"")</f>
-        <v>3.9681699861787159E-4</v>
+        <v>3.9986669629135104E-4</v>
       </c>
       <c r="F155" s="17">
         <f t="shared" si="7"/>
-        <v>3.9992001066557759E-4</v>
+        <v>3.9986669629135104E-4</v>
       </c>
       <c r="G155" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26162,7 +26162,7 @@
       </c>
       <c r="P155" s="17">
         <f t="shared" ref="P155:P174" si="9">SUM(F155:O155)</f>
-        <v>3.9992001066557759E-4</v>
+        <v>3.9986669629135104E-4</v>
       </c>
     </row>
     <row r="156" spans="4:16" x14ac:dyDescent="0.3">
@@ -26171,11 +26171,11 @@
       </c>
       <c r="E156" s="17">
         <f t="shared" si="8"/>
-        <v>9.8026402119192062E-4</v>
+        <v>9.9916712943677317E-4</v>
       </c>
       <c r="F156" s="17">
         <f t="shared" si="7"/>
-        <v>9.9950016662497809E-4</v>
+        <v>9.9916712943677317E-4</v>
       </c>
       <c r="G156" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26215,7 +26215,7 @@
       </c>
       <c r="P156" s="17">
         <f t="shared" si="9"/>
-        <v>9.9950016662497809E-4</v>
+        <v>9.9916712943677317E-4</v>
       </c>
     </row>
     <row r="157" spans="4:16" x14ac:dyDescent="0.3">
@@ -26224,11 +26224,11 @@
       </c>
       <c r="E157" s="17">
         <f t="shared" si="8"/>
-        <v>1.9220913403341063E-3</v>
+        <v>1.9966703672860352E-3</v>
       </c>
       <c r="F157" s="17">
         <f t="shared" si="7"/>
-        <v>1.998001332666921E-3</v>
+        <v>1.9966703672860352E-3</v>
       </c>
       <c r="G157" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="P157" s="17">
         <f t="shared" si="9"/>
-        <v>1.998001332666921E-3</v>
+        <v>1.9966703672860352E-3</v>
       </c>
     </row>
     <row r="158" spans="4:16" x14ac:dyDescent="0.3">
@@ -26277,11 +26277,11 @@
       </c>
       <c r="E158" s="17">
         <f t="shared" si="8"/>
-        <v>3.6964052758447167E-3</v>
+        <v>3.9866962469793377E-3</v>
       </c>
       <c r="F158" s="17">
         <f t="shared" si="7"/>
-        <v>3.9920106560085156E-3</v>
+        <v>3.9866962469793377E-3</v>
       </c>
       <c r="G158" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26321,7 +26321,7 @@
       </c>
       <c r="P158" s="17">
         <f t="shared" si="9"/>
-        <v>3.9920106560085156E-3</v>
+        <v>3.9866962469793377E-3</v>
       </c>
     </row>
     <row r="159" spans="4:16" x14ac:dyDescent="0.3">
@@ -26330,11 +26330,11 @@
       </c>
       <c r="E159" s="17">
         <f t="shared" si="8"/>
-        <v>8.2419988491090179E-3</v>
+        <v>9.9171277070295039E-3</v>
       </c>
       <c r="F159" s="17">
         <f t="shared" si="7"/>
-        <v>9.9501662508318933E-3</v>
+        <v>9.9171277070295039E-3</v>
       </c>
       <c r="G159" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26374,7 +26374,7 @@
       </c>
       <c r="P159" s="17">
         <f t="shared" si="9"/>
-        <v>9.9501662508318933E-3</v>
+        <v>9.9171277070295039E-3</v>
       </c>
     </row>
     <row r="160" spans="4:16" x14ac:dyDescent="0.3">
@@ -26383,11 +26383,11 @@
       </c>
       <c r="E160" s="17">
         <f t="shared" si="8"/>
-        <v>1.3766775897069462E-2</v>
+        <v>1.9670339710796458E-2</v>
       </c>
       <c r="F160" s="17">
         <f t="shared" si="7"/>
-        <v>1.9801326693244747E-2</v>
+        <v>1.9670339710796458E-2</v>
       </c>
       <c r="G160" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26427,7 +26427,7 @@
       </c>
       <c r="P160" s="17">
         <f t="shared" si="9"/>
-        <v>1.9801326693244747E-2</v>
+        <v>1.9670339710796458E-2</v>
       </c>
     </row>
     <row r="161" spans="4:16" x14ac:dyDescent="0.3">
@@ -26436,11 +26436,11 @@
       </c>
       <c r="E161" s="17">
         <f t="shared" si="8"/>
-        <v>1.9952587050133617E-2</v>
+        <v>3.8695808981029332E-2</v>
       </c>
       <c r="F161" s="17">
         <f t="shared" si="7"/>
-        <v>3.9210560847676823E-2</v>
+        <v>3.8695808981029332E-2</v>
       </c>
       <c r="G161" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26480,7 +26480,7 @@
       </c>
       <c r="P161" s="17">
         <f t="shared" si="9"/>
-        <v>3.9210560847676823E-2</v>
+        <v>3.8695808981029332E-2</v>
       </c>
     </row>
     <row r="162" spans="4:16" x14ac:dyDescent="0.3">
@@ -26489,11 +26489,11 @@
       </c>
       <c r="E162" s="17">
         <f t="shared" si="8"/>
-        <v>2.4542109027781644E-2</v>
+        <v>9.2110965065631517E-2</v>
       </c>
       <c r="F162" s="17">
         <f t="shared" si="7"/>
-        <v>9.5162581964040482E-2</v>
+        <v>9.2110965065631517E-2</v>
       </c>
       <c r="G162" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26533,7 +26533,7 @@
       </c>
       <c r="P162" s="17">
         <f t="shared" si="9"/>
-        <v>9.5162581964040482E-2</v>
+        <v>9.2110965065631517E-2</v>
       </c>
     </row>
     <row r="163" spans="4:16" x14ac:dyDescent="0.3">
@@ -26542,11 +26542,11 @@
       </c>
       <c r="E163" s="17">
         <f t="shared" si="8"/>
-        <v>2.4991613434302437E-2</v>
+        <v>0.17008121365572643</v>
       </c>
       <c r="F163" s="17">
         <f t="shared" si="7"/>
-        <v>0.18126924692201818</v>
+        <v>0.17008121365572643</v>
       </c>
       <c r="G163" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26586,7 +26586,7 @@
       </c>
       <c r="P163" s="17">
         <f t="shared" si="9"/>
-        <v>0.18126924692201818</v>
+        <v>0.17008121365572643</v>
       </c>
     </row>
     <row r="164" spans="4:16" x14ac:dyDescent="0.3">
@@ -26595,11 +26595,11 @@
       </c>
       <c r="E164" s="17">
         <f t="shared" si="8"/>
-        <v>2.4999997186620632E-2</v>
+        <v>0.29194972858044477</v>
       </c>
       <c r="F164" s="17">
         <f t="shared" si="7"/>
-        <v>0.32967995396436067</v>
+        <v>0.29194972858044477</v>
       </c>
       <c r="G164" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26639,7 +26639,7 @@
       </c>
       <c r="P164" s="17">
         <f t="shared" si="9"/>
-        <v>0.32967995396436067</v>
+        <v>0.29194972858044477</v>
       </c>
     </row>
     <row r="165" spans="4:16" x14ac:dyDescent="0.3">
@@ -26648,11 +26648,11 @@
       </c>
       <c r="E165" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.48667463829746294</v>
       </c>
       <c r="F165" s="17">
         <f t="shared" si="7"/>
-        <v>0.63212055882855767</v>
+        <v>0.48667463829746294</v>
       </c>
       <c r="G165" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26692,7 +26692,7 @@
       </c>
       <c r="P165" s="17">
         <f t="shared" si="9"/>
-        <v>0.63212055882855767</v>
+        <v>0.48667463829746294</v>
       </c>
     </row>
     <row r="166" spans="4:16" x14ac:dyDescent="0.3">
@@ -26701,11 +26701,11 @@
       </c>
       <c r="E166" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.57859560399164855</v>
       </c>
       <c r="F166" s="17">
         <f t="shared" si="7"/>
-        <v>0.8646647167633873</v>
+        <v>0.57859560399164855</v>
       </c>
       <c r="G166" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26745,7 +26745,7 @@
       </c>
       <c r="P166" s="17">
         <f t="shared" si="9"/>
-        <v>0.8646647167633873</v>
+        <v>0.57859560399164855</v>
       </c>
     </row>
     <row r="167" spans="4:16" x14ac:dyDescent="0.3">
@@ -26754,11 +26754,11 @@
       </c>
       <c r="E167" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.59923641971919606</v>
       </c>
       <c r="F167" s="17">
         <f t="shared" si="7"/>
-        <v>0.98168436111126578</v>
+        <v>0.59923641971919606</v>
       </c>
       <c r="G167" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26798,7 +26798,7 @@
       </c>
       <c r="P167" s="17">
         <f t="shared" si="9"/>
-        <v>0.98168436111126578</v>
+        <v>0.59923641971919606</v>
       </c>
     </row>
     <row r="168" spans="4:16" x14ac:dyDescent="0.3">
@@ -26807,11 +26807,11 @@
       </c>
       <c r="E168" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.59999996533350886</v>
       </c>
       <c r="F168" s="17">
         <f t="shared" si="7"/>
-        <v>0.99995460007023751</v>
+        <v>0.59999996533350886</v>
       </c>
       <c r="G168" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26851,7 +26851,7 @@
       </c>
       <c r="P168" s="17">
         <f t="shared" si="9"/>
-        <v>0.99995460007023751</v>
+        <v>0.59999996533350886</v>
       </c>
     </row>
     <row r="169" spans="4:16" x14ac:dyDescent="0.3">
@@ -26860,11 +26860,11 @@
       </c>
       <c r="E169" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="F169" s="17">
         <f t="shared" si="7"/>
-        <v>0.99999999793884642</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="G169" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26904,7 +26904,7 @@
       </c>
       <c r="P169" s="17">
         <f t="shared" si="9"/>
-        <v>0.99999999793884642</v>
+        <v>0.59999999999999798</v>
       </c>
     </row>
     <row r="170" spans="4:16" x14ac:dyDescent="0.3">
@@ -26913,11 +26913,11 @@
       </c>
       <c r="E170" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F170" s="17">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G170" s="17" t="str">
         <f t="shared" si="8"/>
@@ -26957,7 +26957,7 @@
       </c>
       <c r="P170" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="171" spans="4:16" x14ac:dyDescent="0.3">
@@ -26966,11 +26966,11 @@
       </c>
       <c r="E171" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F171" s="17">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G171" s="17" t="str">
         <f t="shared" si="8"/>
@@ -27010,7 +27010,7 @@
       </c>
       <c r="P171" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="172" spans="4:16" x14ac:dyDescent="0.3">
@@ -27019,11 +27019,11 @@
       </c>
       <c r="E172" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F172" s="17">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G172" s="17" t="str">
         <f t="shared" si="8"/>
@@ -27063,7 +27063,7 @@
       </c>
       <c r="P172" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="173" spans="4:16" x14ac:dyDescent="0.3">
@@ -27072,11 +27072,11 @@
       </c>
       <c r="E173" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F173" s="17">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G173" s="17" t="str">
         <f t="shared" si="8"/>
@@ -27116,7 +27116,7 @@
       </c>
       <c r="P173" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="174" spans="4:16" x14ac:dyDescent="0.3">
@@ -27125,11 +27125,11 @@
       </c>
       <c r="E174" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F174" s="17">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G174" s="17" t="str">
         <f t="shared" si="8"/>
@@ -27169,7 +27169,7 @@
       </c>
       <c r="P174" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="175" spans="4:16" x14ac:dyDescent="0.3">
@@ -27178,11 +27178,11 @@
       </c>
       <c r="E175" s="17">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F175" s="17">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G175" s="17" t="str">
         <f t="shared" si="8"/>
@@ -27222,7 +27222,7 @@
       </c>
       <c r="P175" s="17">
         <f>SUM(F175:O175)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/para/Swi/2MBI300XBE120.xlsx
+++ b/para/Swi/2MBI300XBE120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E51C3236-3924-480C-A4E8-E24413A35302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78762F70-0F85-42EE-BA4B-003BFB1B4FE6}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{E51C3236-3924-480C-A4E8-E24413A35302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D15F14B-8C8A-4103-818D-632B7B925C1A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2712" yWindow="4476" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -2617,52 +2617,52 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.9996667037005533E-4</c:v>
+                  <c:v>1.9670339710796458E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9986669629135104E-4</c:v>
+                  <c:v>3.8695808981029332E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9916712943677317E-4</c:v>
+                  <c:v>9.2110965065631586E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9966703672860352E-3</c:v>
+                  <c:v>0.17008121365572643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9866962469793377E-3</c:v>
+                  <c:v>0.29194972858044477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9171277070295039E-3</c:v>
+                  <c:v>0.48667463829746294</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9670339710796458E-2</c:v>
+                  <c:v>0.57859560399164855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8695808981029332E-2</c:v>
+                  <c:v>0.59923641971919606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2110965065631517E-2</c:v>
+                  <c:v>0.59999996533350886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17008121365572643</c:v>
+                  <c:v>0.59999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29194972858044477</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48667463829746294</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57859560399164855</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59923641971919606</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59999996533350886</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59999999999999798</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.6</c:v>
@@ -19816,7 +19816,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19926,6 +19926,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1E1511C0-0C0F-43ED-9E9D-17B2097318D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23023,7 +23026,7 @@
   <dimension ref="A1:W175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23312,10 +23315,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="16">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="F7" s="17">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -26065,11 +26068,11 @@
       </c>
       <c r="E154" s="17">
         <f>IFERROR(E$6*(1-EXP(-$D154/(E$6*E$7))),"")</f>
-        <v>1.9996667037005533E-4</v>
+        <v>1.9670339710796458E-2</v>
       </c>
       <c r="F154" s="17">
         <f t="shared" ref="F154:O169" si="7">IFERROR(F$6*(1-EXP(-$D154/(F$6*F$7))),"")</f>
-        <v>1.9996667037005533E-4</v>
+        <v>1.9670339710796458E-2</v>
       </c>
       <c r="G154" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26109,7 +26112,7 @@
       </c>
       <c r="P154" s="17">
         <f>SUM(F154:O154)</f>
-        <v>1.9996667037005533E-4</v>
+        <v>1.9670339710796458E-2</v>
       </c>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.3">
@@ -26118,11 +26121,11 @@
       </c>
       <c r="E155" s="17">
         <f t="shared" ref="E155:O175" si="8">IFERROR(E$6*(1-EXP(-$D155/(E$6*E$7))),"")</f>
-        <v>3.9986669629135104E-4</v>
+        <v>3.8695808981029332E-2</v>
       </c>
       <c r="F155" s="17">
         <f t="shared" si="7"/>
-        <v>3.9986669629135104E-4</v>
+        <v>3.8695808981029332E-2</v>
       </c>
       <c r="G155" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26162,7 +26165,7 @@
       </c>
       <c r="P155" s="17">
         <f t="shared" ref="P155:P174" si="9">SUM(F155:O155)</f>
-        <v>3.9986669629135104E-4</v>
+        <v>3.8695808981029332E-2</v>
       </c>
     </row>
     <row r="156" spans="4:16" x14ac:dyDescent="0.3">
@@ -26171,11 +26174,11 @@
       </c>
       <c r="E156" s="17">
         <f t="shared" si="8"/>
-        <v>9.9916712943677317E-4</v>
+        <v>9.2110965065631586E-2</v>
       </c>
       <c r="F156" s="17">
         <f t="shared" si="7"/>
-        <v>9.9916712943677317E-4</v>
+        <v>9.2110965065631586E-2</v>
       </c>
       <c r="G156" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26215,7 +26218,7 @@
       </c>
       <c r="P156" s="17">
         <f t="shared" si="9"/>
-        <v>9.9916712943677317E-4</v>
+        <v>9.2110965065631586E-2</v>
       </c>
     </row>
     <row r="157" spans="4:16" x14ac:dyDescent="0.3">
@@ -26224,11 +26227,11 @@
       </c>
       <c r="E157" s="17">
         <f t="shared" si="8"/>
-        <v>1.9966703672860352E-3</v>
+        <v>0.17008121365572643</v>
       </c>
       <c r="F157" s="17">
         <f t="shared" si="7"/>
-        <v>1.9966703672860352E-3</v>
+        <v>0.17008121365572643</v>
       </c>
       <c r="G157" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26268,7 +26271,7 @@
       </c>
       <c r="P157" s="17">
         <f t="shared" si="9"/>
-        <v>1.9966703672860352E-3</v>
+        <v>0.17008121365572643</v>
       </c>
     </row>
     <row r="158" spans="4:16" x14ac:dyDescent="0.3">
@@ -26277,11 +26280,11 @@
       </c>
       <c r="E158" s="17">
         <f t="shared" si="8"/>
-        <v>3.9866962469793377E-3</v>
+        <v>0.29194972858044477</v>
       </c>
       <c r="F158" s="17">
         <f t="shared" si="7"/>
-        <v>3.9866962469793377E-3</v>
+        <v>0.29194972858044477</v>
       </c>
       <c r="G158" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26321,7 +26324,7 @@
       </c>
       <c r="P158" s="17">
         <f t="shared" si="9"/>
-        <v>3.9866962469793377E-3</v>
+        <v>0.29194972858044477</v>
       </c>
     </row>
     <row r="159" spans="4:16" x14ac:dyDescent="0.3">
@@ -26330,11 +26333,11 @@
       </c>
       <c r="E159" s="17">
         <f t="shared" si="8"/>
-        <v>9.9171277070295039E-3</v>
+        <v>0.48667463829746294</v>
       </c>
       <c r="F159" s="17">
         <f t="shared" si="7"/>
-        <v>9.9171277070295039E-3</v>
+        <v>0.48667463829746294</v>
       </c>
       <c r="G159" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26374,7 +26377,7 @@
       </c>
       <c r="P159" s="17">
         <f t="shared" si="9"/>
-        <v>9.9171277070295039E-3</v>
+        <v>0.48667463829746294</v>
       </c>
     </row>
     <row r="160" spans="4:16" x14ac:dyDescent="0.3">
@@ -26383,11 +26386,11 @@
       </c>
       <c r="E160" s="17">
         <f t="shared" si="8"/>
-        <v>1.9670339710796458E-2</v>
+        <v>0.57859560399164855</v>
       </c>
       <c r="F160" s="17">
         <f t="shared" si="7"/>
-        <v>1.9670339710796458E-2</v>
+        <v>0.57859560399164855</v>
       </c>
       <c r="G160" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26427,7 +26430,7 @@
       </c>
       <c r="P160" s="17">
         <f t="shared" si="9"/>
-        <v>1.9670339710796458E-2</v>
+        <v>0.57859560399164855</v>
       </c>
     </row>
     <row r="161" spans="4:16" x14ac:dyDescent="0.3">
@@ -26436,11 +26439,11 @@
       </c>
       <c r="E161" s="17">
         <f t="shared" si="8"/>
-        <v>3.8695808981029332E-2</v>
+        <v>0.59923641971919606</v>
       </c>
       <c r="F161" s="17">
         <f t="shared" si="7"/>
-        <v>3.8695808981029332E-2</v>
+        <v>0.59923641971919606</v>
       </c>
       <c r="G161" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26480,7 +26483,7 @@
       </c>
       <c r="P161" s="17">
         <f t="shared" si="9"/>
-        <v>3.8695808981029332E-2</v>
+        <v>0.59923641971919606</v>
       </c>
     </row>
     <row r="162" spans="4:16" x14ac:dyDescent="0.3">
@@ -26489,11 +26492,11 @@
       </c>
       <c r="E162" s="17">
         <f t="shared" si="8"/>
-        <v>9.2110965065631517E-2</v>
+        <v>0.59999996533350886</v>
       </c>
       <c r="F162" s="17">
         <f t="shared" si="7"/>
-        <v>9.2110965065631517E-2</v>
+        <v>0.59999996533350886</v>
       </c>
       <c r="G162" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26533,7 +26536,7 @@
       </c>
       <c r="P162" s="17">
         <f t="shared" si="9"/>
-        <v>9.2110965065631517E-2</v>
+        <v>0.59999996533350886</v>
       </c>
     </row>
     <row r="163" spans="4:16" x14ac:dyDescent="0.3">
@@ -26542,11 +26545,11 @@
       </c>
       <c r="E163" s="17">
         <f t="shared" si="8"/>
-        <v>0.17008121365572643</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="F163" s="17">
         <f t="shared" si="7"/>
-        <v>0.17008121365572643</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="G163" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26586,7 +26589,7 @@
       </c>
       <c r="P163" s="17">
         <f t="shared" si="9"/>
-        <v>0.17008121365572643</v>
+        <v>0.59999999999999798</v>
       </c>
     </row>
     <row r="164" spans="4:16" x14ac:dyDescent="0.3">
@@ -26595,11 +26598,11 @@
       </c>
       <c r="E164" s="17">
         <f t="shared" si="8"/>
-        <v>0.29194972858044477</v>
+        <v>0.6</v>
       </c>
       <c r="F164" s="17">
         <f t="shared" si="7"/>
-        <v>0.29194972858044477</v>
+        <v>0.6</v>
       </c>
       <c r="G164" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26639,7 +26642,7 @@
       </c>
       <c r="P164" s="17">
         <f t="shared" si="9"/>
-        <v>0.29194972858044477</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="165" spans="4:16" x14ac:dyDescent="0.3">
@@ -26648,11 +26651,11 @@
       </c>
       <c r="E165" s="17">
         <f t="shared" si="8"/>
-        <v>0.48667463829746294</v>
+        <v>0.6</v>
       </c>
       <c r="F165" s="17">
         <f t="shared" si="7"/>
-        <v>0.48667463829746294</v>
+        <v>0.6</v>
       </c>
       <c r="G165" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26692,7 +26695,7 @@
       </c>
       <c r="P165" s="17">
         <f t="shared" si="9"/>
-        <v>0.48667463829746294</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="166" spans="4:16" x14ac:dyDescent="0.3">
@@ -26701,11 +26704,11 @@
       </c>
       <c r="E166" s="17">
         <f t="shared" si="8"/>
-        <v>0.57859560399164855</v>
+        <v>0.6</v>
       </c>
       <c r="F166" s="17">
         <f t="shared" si="7"/>
-        <v>0.57859560399164855</v>
+        <v>0.6</v>
       </c>
       <c r="G166" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26745,7 +26748,7 @@
       </c>
       <c r="P166" s="17">
         <f t="shared" si="9"/>
-        <v>0.57859560399164855</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="167" spans="4:16" x14ac:dyDescent="0.3">
@@ -26754,11 +26757,11 @@
       </c>
       <c r="E167" s="17">
         <f t="shared" si="8"/>
-        <v>0.59923641971919606</v>
+        <v>0.6</v>
       </c>
       <c r="F167" s="17">
         <f t="shared" si="7"/>
-        <v>0.59923641971919606</v>
+        <v>0.6</v>
       </c>
       <c r="G167" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26798,7 +26801,7 @@
       </c>
       <c r="P167" s="17">
         <f t="shared" si="9"/>
-        <v>0.59923641971919606</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="168" spans="4:16" x14ac:dyDescent="0.3">
@@ -26807,11 +26810,11 @@
       </c>
       <c r="E168" s="17">
         <f t="shared" si="8"/>
-        <v>0.59999996533350886</v>
+        <v>0.6</v>
       </c>
       <c r="F168" s="17">
         <f t="shared" si="7"/>
-        <v>0.59999996533350886</v>
+        <v>0.6</v>
       </c>
       <c r="G168" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26851,7 +26854,7 @@
       </c>
       <c r="P168" s="17">
         <f t="shared" si="9"/>
-        <v>0.59999996533350886</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="169" spans="4:16" x14ac:dyDescent="0.3">
@@ -26860,11 +26863,11 @@
       </c>
       <c r="E169" s="17">
         <f t="shared" si="8"/>
-        <v>0.59999999999999798</v>
+        <v>0.6</v>
       </c>
       <c r="F169" s="17">
         <f t="shared" si="7"/>
-        <v>0.59999999999999798</v>
+        <v>0.6</v>
       </c>
       <c r="G169" s="17" t="str">
         <f t="shared" si="7"/>
@@ -26904,7 +26907,7 @@
       </c>
       <c r="P169" s="17">
         <f t="shared" si="9"/>
-        <v>0.59999999999999798</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="170" spans="4:16" x14ac:dyDescent="0.3">
